--- a/Planeacion/riesgos.xlsx
+++ b/Planeacion/riesgos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesúsarmando\Desktop\5toSemestre\IngenieriaDeSoftware\Parcial1\Ejercicios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesúsarmando\Desktop\5toSemestre\IngenieriaDeSoftware\IngenieriaDelSoftware\Planeacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -230,6 +230,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2857500"/>
+          <a:ext cx="7867650" cy="2428875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -768,5 +817,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Planeacion/riesgos.xlsx
+++ b/Planeacion/riesgos.xlsx
@@ -269,7 +269,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="2857500"/>
-          <a:ext cx="7867650" cy="2428875"/>
+          <a:ext cx="8848725" cy="2428875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -547,20 +547,20 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="60.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
